--- a/Payments/Contractor Payment Cerfificates/KCE/Sub Contractor Payment/D040 Elite/Elite Progress Assessment - March 2023.xlsx
+++ b/Payments/Contractor Payment Cerfificates/KCE/Sub Contractor Payment/D040 Elite/Elite Progress Assessment - March 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himal\OneDrive\Documents\Work\ECON\Omniyat\Payments\Contractor Payment Cerfificates\KCE\Sub Contractor Payment\D040 Elite\3 March\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tharaka\F015 - Plot 18\Main Scope\Payments\Mar 2023\Omniyat Concept Investments LLC-Plot 18-2023-04-07-12-08-20-987\06b. Subcontractor Cost &amp; Backup\2. Domestic SC's\D40. Elite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFCD4FD-5E44-4168-8B5A-019183FB641E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4F7116-7498-486C-B106-BA950E28133A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{2CE928B3-5994-456E-9AD4-1A79AD47B3A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2CE928B3-5994-456E-9AD4-1A79AD47B3A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1357,27 +1357,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96FB052-7CE8-4350-8192-108F5EAB555B}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="I10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O38" sqref="O37:O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="34.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="2"/>
-    <col min="4" max="4" width="8.7265625" style="1"/>
-    <col min="5" max="5" width="12.08984375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="34.77734375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="2"/>
+    <col min="4" max="4" width="8.77734375" style="1"/>
+    <col min="5" max="5" width="12.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="15.77734375" style="2" customWidth="1"/>
     <col min="10" max="11" width="23" style="3" customWidth="1"/>
-    <col min="12" max="12" width="7.6328125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" style="6" customWidth="1"/>
     <col min="13" max="13" width="23" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="30" t="s">
         <v>29</v>
@@ -1435,7 +1434,7 @@
       <c r="L2" s="11"/>
       <c r="M2" s="12"/>
     </row>
-    <row r="3" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="B3" s="15" t="s">
         <v>12</v>
@@ -1452,7 +1451,7 @@
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="21"/>
       <c r="C4" s="16"/>
@@ -1467,7 +1466,7 @@
       <c r="L4" s="19"/>
       <c r="M4" s="20"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -1510,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -1555,7 +1554,7 @@
         <v>3465</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -1600,7 +1599,7 @@
         <v>4725</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -1645,7 +1644,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -1690,7 +1689,7 @@
         <v>24921</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -1735,7 +1734,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -1778,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -1823,7 +1822,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -1868,7 +1867,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>10</v>
       </c>
@@ -1913,7 +1912,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>11</v>
       </c>
@@ -1956,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>12</v>
       </c>
@@ -2001,7 +2000,7 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>13</v>
       </c>
@@ -2044,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>14</v>
       </c>
@@ -2087,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="21"/>
       <c r="C19" s="16"/>
@@ -2114,7 +2113,7 @@
         <v>50274</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="37" t="s">
         <v>36</v>
@@ -2131,7 +2130,7 @@
       <c r="L20" s="19"/>
       <c r="M20" s="20"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="13" t="s">
         <v>33</v>
@@ -2148,7 +2147,7 @@
       <c r="L21" s="19"/>
       <c r="M21" s="20"/>
     </row>
-    <row r="22" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="21" t="s">
         <v>30</v>
@@ -2191,7 +2190,7 @@
         <v>81540</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="21" t="s">
         <v>31</v>
@@ -2234,7 +2233,7 @@
         <v>84095.599999999991</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="21"/>
       <c r="C24" s="16"/>
@@ -2249,7 +2248,7 @@
       <c r="L24" s="19"/>
       <c r="M24" s="20"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="13" t="s">
         <v>34</v>
@@ -2266,7 +2265,7 @@
       <c r="L25" s="19"/>
       <c r="M25" s="20"/>
     </row>
-    <row r="26" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="21" t="s">
         <v>35</v>
@@ -2301,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="21"/>
       <c r="C27" s="16"/>
@@ -2325,7 +2324,7 @@
         <v>165635.59999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="24"/>
       <c r="B28" s="25"/>
       <c r="C28" s="26"/>
@@ -2349,7 +2348,7 @@
         <v>215909.59999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I30" s="2" t="s">
         <v>37</v>
       </c>
@@ -2364,7 +2363,7 @@
         <v>151316</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I31" s="2" t="s">
         <v>38</v>
       </c>
